--- a/src/Cyberpunk2078/Assets/Xlsx/Dictionary.xlsx
+++ b/src/Cyberpunk2078/Assets/Xlsx/Dictionary.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BAFCBD-9A22-4FB8-994A-5F7C91FD3136}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F1FCCB-B207-45AF-9122-63C6631C7985}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -37,40 +37,50 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Today is a wonderful day</t>
-  </si>
-  <si>
     <t>UI</t>
   </si>
   <si>
-    <t>Dialogue</t>
-  </si>
-  <si>
     <t>Settings</t>
   </si>
   <si>
     <t>Run, Run away…</t>
   </si>
   <si>
-    <t>Pop</t>
-  </si>
-  <si>
     <t>Time is ticking out</t>
   </si>
   <si>
-    <t>pub</t>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pop-up</t>
+  </si>
+  <si>
+    <t>Pop-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kill an enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -98,7 +108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -379,13 +389,13 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -401,54 +411,54 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -456,59 +466,25 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>